--- a/medicine/Psychotrope/Château_La_Gaffelière/Château_La_Gaffelière.xlsx
+++ b/medicine/Psychotrope/Château_La_Gaffelière/Château_La_Gaffelière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_La_Gaffeli%C3%A8re</t>
+          <t>Château_La_Gaffelière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le château La Gaffelière est un domaine viticole de 25 ha dont 22 ha de vignes situé à Saint-Émilion en Gironde. En AOC Saint-Émilion, il est classé Premier grand cru classé B dans le classement des vins de Saint-Émilion jusqu'en 2022, date à laquelle le domaine décide de se retirer de ce classement[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le château La Gaffelière est un domaine viticole de 25 ha dont 22 ha de vignes situé à Saint-Émilion en Gironde. En AOC Saint-Émilion, il est classé Premier grand cru classé B dans le classement des vins de Saint-Émilion jusqu'en 2022, date à laquelle le domaine décide de se retirer de ce classement.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_La_Gaffeli%C3%A8re</t>
+          <t>Château_La_Gaffelière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire du domaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire du domaine est liée à celle de la famille Malet-Roquefort installée à Saint-Émilion depuis trois siècles. Selon le site en ligne du domaine, elle constitue la plus ancienne famille de la région de Saint-Émilion. L'actuel propriétaire est Léo de Malet-Roquefort, (né en 1933 dans cette commune).
 Le château présente au travers de son architecture les goûts et les inspirations des nombreuses générations.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_La_Gaffeli%C3%A8re</t>
+          <t>Château_La_Gaffelière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Terroir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sol est argilo-calcaire sur un coteau exposé au sud, et des pieds de côte plus siliceux.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_La_Gaffeli%C3%A8re</t>
+          <t>Château_La_Gaffelière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Vin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'encépagement est constitué à 65 % de merlot et à 35 % de cabernet franc.
 La Gaffelière produit un second vin issu des jeunes vignes (moins de 25 ans) appelé Clos La Gaffelière.
